--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>18/2/2025, 5:05:58 pm</v>
+        <v>18/2/2025, 6:07:41 pm</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>18/2/2025, 6:07:41 pm</v>
+        <v>2/19/2025, 7:41:25 AM</v>
       </c>
     </row>
   </sheetData>
